--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Proc-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Proc-Tek.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.10446833333333</v>
+        <v>53.457377</v>
       </c>
       <c r="N2">
-        <v>102.313405</v>
+        <v>160.372131</v>
       </c>
       <c r="O2">
-        <v>0.5118942073015388</v>
+        <v>0.6217639481372091</v>
       </c>
       <c r="P2">
-        <v>0.5118942073015388</v>
+        <v>0.6217639481372091</v>
       </c>
       <c r="Q2">
-        <v>6.673391841125</v>
+        <v>10.460272244475</v>
       </c>
       <c r="R2">
-        <v>60.06052657012499</v>
+        <v>94.14245020027501</v>
       </c>
       <c r="S2">
-        <v>0.5118942073015388</v>
+        <v>0.6217639481372091</v>
       </c>
       <c r="T2">
-        <v>0.5118942073015388</v>
+        <v>0.6217639481372091</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>93.25067100000001</v>
       </c>
       <c r="O3">
-        <v>0.4665515560925922</v>
+        <v>0.3615335470438062</v>
       </c>
       <c r="P3">
-        <v>0.4665515560925922</v>
+        <v>0.3615335470438062</v>
       </c>
       <c r="Q3">
         <v>6.082275015975001</v>
@@ -632,10 +632,10 @@
         <v>54.74047514377501</v>
       </c>
       <c r="S3">
-        <v>0.4665515560925922</v>
+        <v>0.3615335470438062</v>
       </c>
       <c r="T3">
-        <v>0.4665515560925922</v>
+        <v>0.3615335470438062</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>4.308092</v>
       </c>
       <c r="O4">
-        <v>0.02155423660586901</v>
+        <v>0.01670250481898457</v>
       </c>
       <c r="P4">
-        <v>0.02155423660586901</v>
+        <v>0.01670250481898457</v>
       </c>
       <c r="Q4">
         <v>0.2809953007</v>
@@ -694,10 +694,10 @@
         <v>2.5289577063</v>
       </c>
       <c r="S4">
-        <v>0.02155423660586901</v>
+        <v>0.01670250481898457</v>
       </c>
       <c r="T4">
-        <v>0.02155423660586901</v>
+        <v>0.01670250481898457</v>
       </c>
     </row>
   </sheetData>
